--- a/test_data/Testing.xlsx
+++ b/test_data/Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="-15" windowWidth="5175" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="15330" yWindow="-15" windowWidth="5175" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="PQSQ" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="39">
   <si>
     <t>p</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>PQSQ, 5 int, no opt, L1</t>
+  </si>
+  <si>
+    <t>PQSQ, 5 int, opt at the end, L1</t>
+  </si>
+  <si>
+    <t>PQSQ, 5 int, opt anytime, L1</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1699,7 @@
     <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
@@ -1706,8 +1712,20 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1724,8 +1742,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +1790,32 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1793,12 +1851,32 @@
       <c r="K4" s="2">
         <v>1.9331971621452702E-2</v>
       </c>
-      <c r="O4" t="e">
-        <f>FIND(A4,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <v>2.41101280937869E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.4399756760083102E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.36772245104732498</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.9074148533198398E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.2931231522438499E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.7465667451214201E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5.1856335490397099</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.37143508532495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1834,8 +1912,32 @@
       <c r="K5" s="2">
         <v>1.9158515993220399E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <v>3.2054761729835297E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.73254568564441E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.369486919063514</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3.9110267571560997E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3.0169990563912799E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.2957713355413797E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4.8451918634510101</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1.1632504211280601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1871,8 +1973,32 @@
       <c r="K6" s="2">
         <v>2.2358038125399E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="2">
+        <v>4.2723267439281398E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.7524029641131203E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.36934254372046499</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.96795135530979E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4.1102659627442702E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5.6086910847354E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4.8442998547132801</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.1636224605944101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1908,8 +2034,32 @@
       <c r="K7" s="2">
         <v>2.1662700004412502E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <v>6.2934111883439406E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.2901168395991203E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.36471475729646002</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.9732542519441499E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6.6321993575798793E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.5890053463437699E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4.5344374604094702</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.0012513370090399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1945,8 +2095,32 @@
       <c r="K8" s="2">
         <v>2.1952510588753301E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <v>2.6125464766739999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5.2897649790645603E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.36037184204595202</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3.0484424722472401E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2.5986280366099401</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.0705543056317899E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4.7161317359320503</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.1001817822054401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1982,8 +2156,32 @@
       <c r="K9" s="2">
         <v>1.9545716218023701E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <v>3.8725801785216403E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5.3696167983764498E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.36891452468991598</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4.2457334065484603E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3.7185367338592998E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5.5460066181153003E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5.1368497495559096</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1.2337829781053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2019,8 +2217,32 @@
       <c r="K10" s="2">
         <v>2.21807802895875E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <v>6.1493900339629502E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5.0892982550451403E-3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.36365657815493702</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3.5247332128202101E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>6.5873340317356602E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.78295980599859E-2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>4.7846825265520803</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1.1770569418297601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2056,8 +2278,32 @@
       <c r="K11" s="2">
         <v>2.1599673422386102E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <v>0.107805878373033</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.7763080797629502E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.36180486421090102</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3.9255895211661597E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.18113884207797501</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.20751365929562701</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4.9656551018875001</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1.1931513703877701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2093,8 +2339,32 @@
       <c r="K12" s="2">
         <v>2.2147048939600199E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <v>5.1149760406920599</v>
+      </c>
+      <c r="M12" s="2">
+        <v>6.1456638425367799E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.35168549017128597</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3.5470688364566703E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5.1143787991749097</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5.9927045362084697E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4.4304184044077903</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1.12071927603723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2130,8 +2400,32 @@
       <c r="K13" s="2">
         <v>2.45930690282266E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <v>4.5057135929900002E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5.3642187400653298E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.37287295355710198</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.6870411211166902E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4.3942174606281102E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.9821479209765998E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4.9448005129988299</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1.27614846928089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2461,32 @@
       <c r="K14" s="2">
         <v>2.07693882280033E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="2">
+        <v>7.8100465795342799E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5.5137788596771398E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.36129082673850399</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3.3782864315302703E-2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>9.3868966396076697E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.4341089094859502E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4.7891381693544801</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1.3093854545861301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2204,8 +2522,32 @@
       <c r="K15" s="2">
         <v>2.1543824926844101E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L15" s="2">
+        <v>0.212617200045154</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.41908497728161798</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.35665461212468802</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4.37562405763951E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.2446606839435901</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.4490056548417201</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5.1026185889001603</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.33975221108362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2241,9 +2583,39 @@
       <c r="K16" s="2">
         <v>2.2936791912076E-2</v>
       </c>
+      <c r="L16" s="2">
+        <v>7.6342303933860904</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5.2511109710199101E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.33993573967115698</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2.97097377368961E-2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>7.63351434228443</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5.1958639781102302E-3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4.4630914091169798</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1.22022201122638</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -25529,8 +25901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/test_data/Testing.xlsx
+++ b/test_data/Testing.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="85">
   <si>
     <t>p</t>
   </si>
@@ -2995,6 +2995,62 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comp!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PQSQ (20,0,L1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comp!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2194535945072047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comp!$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>159.0834630798071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4873,16 +4929,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>93750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122775</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>198525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5266,7 +5322,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5911,7 +5967,7 @@
         <v>0.10021576519604442</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D24" si="7">C19/$C$18</f>
+        <f t="shared" ref="D19:D25" si="7">C19/$C$18</f>
         <v>20.763366254200822</v>
       </c>
     </row>
@@ -6001,10 +6057,21 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2">
+        <f>AVERAGE(PQSQ!AF4:AF16)</f>
+        <v>1.2194535945072047</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(PQSQ!AH4:AH16)</f>
+        <v>0.76782689220029754</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="7"/>
+        <v>159.0834630798071</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -36390,10 +36457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38039,6 +38106,1304 @@
       <c r="AI16" s="2">
         <v>9.0149703521178903E-2</v>
       </c>
+    </row>
+    <row r="17" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+    </row>
+    <row r="18" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <f>AVERAGE(D4:D16)</f>
+        <v>1.9959397351453063</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <f>AVERAGE(F4:F16)</f>
+        <v>4.8265663654499602E-3</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <f>AVERAGE(H4:H16)</f>
+        <v>1.2711586657378526</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <f>AVERAGE(J4:J16)</f>
+        <v>0.10021576519604442</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <f>AVERAGE(L4:L16)</f>
+        <v>1.2359519663205205</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <f>AVERAGE(N4:N16)</f>
+        <v>0.36218877711478509</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2">
+        <f>AVERAGE(P4:P16)</f>
+        <v>1.3210551098491341</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2">
+        <f>AVERAGE(R4:R16)</f>
+        <v>4.8263806866399426</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <f>AVERAGE(T4:T16)</f>
+        <v>1.2377059084084705</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
+        <f>AVERAGE(V4:V16)</f>
+        <v>0.20027033239607128</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2">
+        <f>AVERAGE(X4:X16)</f>
+        <v>1.2158158989717907</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <f>AVERAGE(Z4:Z16)</f>
+        <v>0.51827636997242743</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <f>AVERAGE(AB4:AB16)</f>
+        <v>1.2297558922751675</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2">
+        <f>AVERAGE(AD4:AD16)</f>
+        <v>0.29872864093047169</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2">
+        <f>AVERAGE(AF4:AF16)</f>
+        <v>1.2194535945072047</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2">
+        <f>AVERAGE(AH4:AH16)</f>
+        <v>0.76782689220029754</v>
+      </c>
+      <c r="AI18" s="2"/>
+    </row>
+    <row r="20" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>2.41629217568235E-2</v>
+      </c>
+      <c r="I20">
+        <v>3.4708793181462E-3</v>
+      </c>
+      <c r="J20">
+        <v>0.105998371015238</v>
+      </c>
+      <c r="K20">
+        <v>1.99135083950043E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.4282288513320399E-2</v>
+      </c>
+      <c r="M20">
+        <v>3.4384967091985398E-3</v>
+      </c>
+      <c r="N20">
+        <v>0.34813216042051498</v>
+      </c>
+      <c r="O20">
+        <v>3.16568118770095E-2</v>
+      </c>
+      <c r="P20">
+        <v>2.2930253129202299E-2</v>
+      </c>
+      <c r="Q20">
+        <v>3.7460757296970799E-3</v>
+      </c>
+      <c r="R20">
+        <v>4.7127633172993804</v>
+      </c>
+      <c r="S20">
+        <v>1.2286304621216699</v>
+      </c>
+      <c r="T20">
+        <v>2.1439961291448199E-2</v>
+      </c>
+      <c r="U20">
+        <v>2.9815030312647099E-3</v>
+      </c>
+      <c r="V20">
+        <v>0.204945532874661</v>
+      </c>
+      <c r="W20">
+        <v>4.5405265450107403E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <v>3.1647884396606797E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.72017924281774E-3</v>
+      </c>
+      <c r="J21">
+        <v>0.107781924591307</v>
+      </c>
+      <c r="K21">
+        <v>1.8008271016092599E-2</v>
+      </c>
+      <c r="L21">
+        <v>3.2111495488743501E-2</v>
+      </c>
+      <c r="M21">
+        <v>3.7546680507838802E-3</v>
+      </c>
+      <c r="N21">
+        <v>0.34532335634903799</v>
+      </c>
+      <c r="O21">
+        <v>3.2756082331272897E-2</v>
+      </c>
+      <c r="P21">
+        <v>3.0170731649598801E-2</v>
+      </c>
+      <c r="Q21">
+        <v>4.2956527496541396E-3</v>
+      </c>
+      <c r="R21">
+        <v>4.54022035221048</v>
+      </c>
+      <c r="S21">
+        <v>1.0485451338642</v>
+      </c>
+      <c r="T21">
+        <v>2.7355161069103798E-2</v>
+      </c>
+      <c r="U21">
+        <v>3.8593310726424E-3</v>
+      </c>
+      <c r="V21">
+        <v>0.20915665143461901</v>
+      </c>
+      <c r="W21">
+        <v>4.27712560481509E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>4.21596822427696E-2</v>
+      </c>
+      <c r="I22">
+        <v>4.7212727238037499E-3</v>
+      </c>
+      <c r="J22">
+        <v>0.113648609759212</v>
+      </c>
+      <c r="K22">
+        <v>2.5879550530409499E-2</v>
+      </c>
+      <c r="L22">
+        <v>4.2586158521012697E-2</v>
+      </c>
+      <c r="M22">
+        <v>4.7636363859468699E-3</v>
+      </c>
+      <c r="N22">
+        <v>0.34660185075330302</v>
+      </c>
+      <c r="O22">
+        <v>3.1536993035348397E-2</v>
+      </c>
+      <c r="P22">
+        <v>4.1105311705682802E-2</v>
+      </c>
+      <c r="Q22">
+        <v>5.6111383663255401E-3</v>
+      </c>
+      <c r="R22">
+        <v>4.6652434999690104</v>
+      </c>
+      <c r="S22">
+        <v>1.1309632703754799</v>
+      </c>
+      <c r="T22">
+        <v>2.7517041797659798E-2</v>
+      </c>
+      <c r="U22">
+        <v>3.9738156531049099E-3</v>
+      </c>
+      <c r="V22">
+        <v>0.205406423077065</v>
+      </c>
+      <c r="W22">
+        <v>4.4431991511562498E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>6.29104282147806E-2</v>
+      </c>
+      <c r="I23">
+        <v>4.4903941359313504E-3</v>
+      </c>
+      <c r="J23">
+        <v>0.112126740597724</v>
+      </c>
+      <c r="K23">
+        <v>2.46595251675077E-2</v>
+      </c>
+      <c r="L23">
+        <v>6.3016030715972005E-2</v>
+      </c>
+      <c r="M23">
+        <v>4.3102591030251504E-3</v>
+      </c>
+      <c r="N23">
+        <v>0.34041933631186799</v>
+      </c>
+      <c r="O23">
+        <v>3.0856580106751099E-2</v>
+      </c>
+      <c r="P23">
+        <v>6.6315692561810594E-2</v>
+      </c>
+      <c r="Q23">
+        <v>1.58921996013206E-2</v>
+      </c>
+      <c r="R23">
+        <v>8.0987217437033898</v>
+      </c>
+      <c r="S23">
+        <v>37.292823050042898</v>
+      </c>
+      <c r="T23">
+        <v>2.95967652132729E-2</v>
+      </c>
+      <c r="U23">
+        <v>3.8336100029922001E-3</v>
+      </c>
+      <c r="V23">
+        <v>0.20746750754247001</v>
+      </c>
+      <c r="W23">
+        <v>3.8804609055562503E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>2.5942814500307398</v>
+      </c>
+      <c r="I24">
+        <v>9.2195285902469098E-3</v>
+      </c>
+      <c r="J24">
+        <v>0.112929553388046</v>
+      </c>
+      <c r="K24">
+        <v>2.34014056474104E-2</v>
+      </c>
+      <c r="L24">
+        <v>2.6123087535169902</v>
+      </c>
+      <c r="M24">
+        <v>5.2293243925180498E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.338593563785961</v>
+      </c>
+      <c r="O24">
+        <v>2.75732053989018E-2</v>
+      </c>
+      <c r="P24">
+        <v>2.5987191135340799</v>
+      </c>
+      <c r="Q24">
+        <v>4.0697102993242799E-2</v>
+      </c>
+      <c r="R24">
+        <v>4.2339273845557601</v>
+      </c>
+      <c r="S24">
+        <v>0.96215293942007196</v>
+      </c>
+      <c r="T24">
+        <v>2.58156166456456</v>
+      </c>
+      <c r="U24">
+        <v>3.7199307028560899E-3</v>
+      </c>
+      <c r="V24">
+        <v>0.189783161930035</v>
+      </c>
+      <c r="W24">
+        <v>4.7329847375126403E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>3.8552452494812497E-2</v>
+      </c>
+      <c r="I25">
+        <v>5.3464869948342498E-3</v>
+      </c>
+      <c r="J25">
+        <v>0.11057268585020601</v>
+      </c>
+      <c r="K25">
+        <v>2.2344061650511299E-2</v>
+      </c>
+      <c r="L25">
+        <v>3.88640830565452E-2</v>
+      </c>
+      <c r="M25">
+        <v>5.4427586571785796E-3</v>
+      </c>
+      <c r="N25">
+        <v>0.34766010379030399</v>
+      </c>
+      <c r="O25">
+        <v>3.1290994173353903E-2</v>
+      </c>
+      <c r="P25">
+        <v>3.7185551359488499E-2</v>
+      </c>
+      <c r="Q25">
+        <v>5.5460755805860204E-3</v>
+      </c>
+      <c r="R25">
+        <v>4.6990219522938999</v>
+      </c>
+      <c r="S25">
+        <v>1.12328559433157</v>
+      </c>
+      <c r="T25">
+        <v>3.2297776044363603E-2</v>
+      </c>
+      <c r="U25">
+        <v>4.3015072289995697E-3</v>
+      </c>
+      <c r="V25">
+        <v>0.211944489716828</v>
+      </c>
+      <c r="W25">
+        <v>4.8595435387183902E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>6.1153413619732901E-2</v>
+      </c>
+      <c r="I26">
+        <v>5.0121848933271096E-3</v>
+      </c>
+      <c r="J26">
+        <v>0.10781542387472599</v>
+      </c>
+      <c r="K26">
+        <v>1.92471433977544E-2</v>
+      </c>
+      <c r="L26">
+        <v>6.1378744841741502E-2</v>
+      </c>
+      <c r="M26">
+        <v>4.9845068669838897E-3</v>
+      </c>
+      <c r="N26">
+        <v>0.339130484224752</v>
+      </c>
+      <c r="O26">
+        <v>2.4980558134608099E-2</v>
+      </c>
+      <c r="P26">
+        <v>6.5874454637487506E-2</v>
+      </c>
+      <c r="Q26">
+        <v>1.7829845508381601E-2</v>
+      </c>
+      <c r="R26">
+        <v>4.6428307715550003</v>
+      </c>
+      <c r="S26">
+        <v>1.14790935714565</v>
+      </c>
+      <c r="T26">
+        <v>3.356035131942E-2</v>
+      </c>
+      <c r="U26">
+        <v>4.1378491795742798E-3</v>
+      </c>
+      <c r="V26">
+        <v>0.20210092644403099</v>
+      </c>
+      <c r="W26">
+        <v>4.0921323734068302E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
+        <v>0.10333646445776599</v>
+      </c>
+      <c r="I27">
+        <v>5.0419721440941303E-3</v>
+      </c>
+      <c r="J27">
+        <v>0.106783543312808</v>
+      </c>
+      <c r="K27">
+        <v>2.46397596781722E-2</v>
+      </c>
+      <c r="L27">
+        <v>0.10692662898144301</v>
+      </c>
+      <c r="M27">
+        <v>3.8079277073620403E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.33879370147786803</v>
+      </c>
+      <c r="O27">
+        <v>3.6791500474526798E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.181141331307968</v>
+      </c>
+      <c r="Q27">
+        <v>0.207512707741971</v>
+      </c>
+      <c r="R27">
+        <v>10.1260531111433</v>
+      </c>
+      <c r="S27">
+        <v>55.725508311499503</v>
+      </c>
+      <c r="T27">
+        <v>3.7554894778460801E-2</v>
+      </c>
+      <c r="U27">
+        <v>4.7576443442314603E-3</v>
+      </c>
+      <c r="V27">
+        <v>0.21339516058513699</v>
+      </c>
+      <c r="W27">
+        <v>4.0424388247483803E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>5.1142873974826397</v>
+      </c>
+      <c r="I28">
+        <v>5.7547175879827401E-3</v>
+      </c>
+      <c r="J28">
+        <v>0.10239521108038099</v>
+      </c>
+      <c r="K28">
+        <v>2.05602728526494E-2</v>
+      </c>
+      <c r="L28">
+        <v>5.1149234997637496</v>
+      </c>
+      <c r="M28">
+        <v>6.0672465087314702E-3</v>
+      </c>
+      <c r="N28">
+        <v>0.33225370534506499</v>
+      </c>
+      <c r="O28">
+        <v>2.77271821594503E-2</v>
+      </c>
+      <c r="P28">
+        <v>5.1143789046764301</v>
+      </c>
+      <c r="Q28">
+        <v>5.9920154140909098E-3</v>
+      </c>
+      <c r="R28">
+        <v>4.2927417521356803</v>
+      </c>
+      <c r="S28">
+        <v>1.0851429937540999</v>
+      </c>
+      <c r="T28">
+        <v>5.1090202668960796</v>
+      </c>
+      <c r="U28">
+        <v>4.3746757055889204E-3</v>
+      </c>
+      <c r="V28">
+        <v>0.185825800441977</v>
+      </c>
+      <c r="W28">
+        <v>4.2336106556479E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <v>4.4905973120643101E-2</v>
+      </c>
+      <c r="I29">
+        <v>5.4058719386323797E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.10528903600475099</v>
+      </c>
+      <c r="K29">
+        <v>2.7200891215856199E-2</v>
+      </c>
+      <c r="L29">
+        <v>4.4983488422858299E-2</v>
+      </c>
+      <c r="M29">
+        <v>5.3321562859602002E-3</v>
+      </c>
+      <c r="N29">
+        <v>0.35328287230081401</v>
+      </c>
+      <c r="O29">
+        <v>2.7256128584005501E-2</v>
+      </c>
+      <c r="P29">
+        <v>4.3942416776584101E-2</v>
+      </c>
+      <c r="Q29">
+        <v>5.9817735401836896E-3</v>
+      </c>
+      <c r="R29">
+        <v>4.8299378415869798</v>
+      </c>
+      <c r="S29">
+        <v>1.24732755905796</v>
+      </c>
+      <c r="T29">
+        <v>3.6706226008854398E-2</v>
+      </c>
+      <c r="U29">
+        <v>4.3127372010367303E-3</v>
+      </c>
+      <c r="V29">
+        <v>0.20751556834038601</v>
+      </c>
+      <c r="W29">
+        <v>4.6719218331072697E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30">
+        <v>7.7825527513362303E-2</v>
+      </c>
+      <c r="I30">
+        <v>5.5199325308055696E-3</v>
+      </c>
+      <c r="J30">
+        <v>0.105563438652179</v>
+      </c>
+      <c r="K30">
+        <v>2.4673340597089699E-2</v>
+      </c>
+      <c r="L30">
+        <v>7.9602184716052904E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.5563438843820899E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.34156922795236</v>
+      </c>
+      <c r="O30">
+        <v>2.9199264211863699E-2</v>
+      </c>
+      <c r="P30">
+        <v>9.3868362542348205E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.4341296056532802E-2</v>
+      </c>
+      <c r="R30">
+        <v>4.5580963950091</v>
+      </c>
+      <c r="S30">
+        <v>1.17473409462587</v>
+      </c>
+      <c r="T30">
+        <v>3.8601047481863E-2</v>
+      </c>
+      <c r="U30">
+        <v>4.2953509640748103E-3</v>
+      </c>
+      <c r="V30">
+        <v>0.20405489941388599</v>
+      </c>
+      <c r="W30">
+        <v>3.8885822895823201E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31">
+        <v>0.69698601404550597</v>
+      </c>
+      <c r="I31">
+        <v>1.1690939227130199</v>
+      </c>
+      <c r="J31">
+        <v>0.111484157835815</v>
+      </c>
+      <c r="K31">
+        <v>2.3011471071917301E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.37873392071267398</v>
+      </c>
+      <c r="M31">
+        <v>0.80057260738036595</v>
+      </c>
+      <c r="N31">
+        <v>0.33743980084347602</v>
+      </c>
+      <c r="O31">
+        <v>3.4984528651469997E-2</v>
+      </c>
+      <c r="P31">
+        <v>1.2448981810991799</v>
+      </c>
+      <c r="Q31">
+        <v>1.4493781554082701</v>
+      </c>
+      <c r="R31">
+        <v>4.6171456681033902</v>
+      </c>
+      <c r="S31">
+        <v>1.1582036889190801</v>
+      </c>
+      <c r="T31">
+        <v>0.45078062777685701</v>
+      </c>
+      <c r="U31">
+        <v>1.0469493199751501</v>
+      </c>
+      <c r="V31">
+        <v>0.20791768290054499</v>
+      </c>
+      <c r="W31">
+        <v>4.4113475526651298E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:35" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32">
+        <v>7.6333218921517503</v>
+      </c>
+      <c r="I32">
+        <v>4.7688173585398201E-3</v>
+      </c>
+      <c r="J32">
+        <v>0.10623682761786001</v>
+      </c>
+      <c r="K32">
+        <v>2.2776523902609501E-2</v>
+      </c>
+      <c r="L32">
+        <v>7.6342096725345598</v>
+      </c>
+      <c r="M32">
+        <v>5.0732938230880703E-3</v>
+      </c>
+      <c r="N32">
+        <v>0.31966100038877199</v>
+      </c>
+      <c r="O32">
+        <v>2.3988456535933299E-2</v>
+      </c>
+      <c r="P32">
+        <v>7.63351774027152</v>
+      </c>
+      <c r="Q32">
+        <v>5.1955186336102499E-3</v>
+      </c>
+      <c r="R32">
+        <v>4.1487531533868998</v>
+      </c>
+      <c r="S32">
+        <v>1.1636303518337101</v>
+      </c>
+      <c r="T32">
+        <v>7.62856647242047</v>
+      </c>
+      <c r="U32">
+        <v>4.5017818199870902E-3</v>
+      </c>
+      <c r="V32">
+        <v>0.179810934313899</v>
+      </c>
+      <c r="W32">
+        <v>3.40159871272415E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H34" s="2">
+        <f>AVERAGE(H20:H32)</f>
+        <v>1.2711947308867637</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <f>AVERAGE(J20:J32)</f>
+        <v>0.10835580950617331</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <f>AVERAGE(L20:L32)</f>
+        <v>1.248763611521974</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <f>AVERAGE(N20:N32)</f>
+        <v>0.34068162799569962</v>
+      </c>
+      <c r="P34" s="2">
+        <f>AVERAGE(P20:P32)</f>
+        <v>1.3210806188654909</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
+        <f>AVERAGE(R20:R32)</f>
+        <v>5.2434966879194072</v>
+      </c>
+      <c r="T34" s="2">
+        <f>AVERAGE(T20:T32)</f>
+        <v>1.2349660197432624</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2">
+        <f>AVERAGE(V20:V32)</f>
+        <v>0.20225574915504146</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H36" s="2">
+        <f>H4-H20</f>
+        <v>-7.677741370850158E-5</v>
+      </c>
+      <c r="I36" s="2">
+        <f>I4-I20</f>
+        <v>7.6592417981199892E-5</v>
+      </c>
+      <c r="J36" s="2">
+        <f>J4-J20</f>
+        <v>-6.5329768834422042E-3</v>
+      </c>
+      <c r="K36" s="2">
+        <f>K4-K20</f>
+        <v>-5.8153677355159833E-4</v>
+      </c>
+      <c r="L36" s="2">
+        <f>L4-L20</f>
+        <v>-1.7216041953349928E-4</v>
+      </c>
+      <c r="M36" s="2">
+        <f>M4-M20</f>
+        <v>1.4789668097703323E-6</v>
+      </c>
+      <c r="N36" s="2">
+        <f>N4-N20</f>
+        <v>1.9590290626810003E-2</v>
+      </c>
+      <c r="O36" s="2">
+        <f>O4-O20</f>
+        <v>7.4173366561888984E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:K37" si="2">H5-H21</f>
+        <v>-6.0447189291296111E-5</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0498890951069841E-5</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.5489461067970026E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1502449771278005E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37:O37" si="3">L5-L21</f>
+        <v>-5.6733758908203424E-5</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.2122365139470163E-5</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4163562714476006E-2</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3541852402881002E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H38" s="2">
+        <f t="shared" ref="H38:K38" si="4">H6-H22</f>
+        <v>-3.719343486759813E-5</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.6836006335779796E-5</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="4"/>
+        <v>-9.5163150952460029E-3</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.5215124050104983E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ref="L38:O38" si="5">L6-L22</f>
+        <v>1.3710891826870103E-4</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.1233421833749604E-5</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2740692967161968E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1425205177495033E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H39" s="2">
+        <f t="shared" ref="H39:K39" si="6">H7-H23</f>
+        <v>-7.3414989699802091E-5</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="6"/>
+        <v>-8.2295798413380139E-5</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="6"/>
+        <v>-9.4403324803880029E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.9968251630951986E-3</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" ref="L39:O39" si="7">L7-L23</f>
+        <v>-8.1918832532598684E-5</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.0142263426030024E-5</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4295420984592031E-2</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="7"/>
+        <v>8.8759624126904003E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H40" s="2">
+        <f t="shared" ref="H40:K40" si="8">H8-H24</f>
+        <v>1.8625763050117428E-5</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1996686091783962E-4</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.0442459438567003E-2</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.4488950586570987E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" ref="L40:O40" si="9">L8-L24</f>
+        <v>2.3772315700965052E-4</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0440586546510466E-4</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1778278259991013E-2</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9112193235706005E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H41" s="2">
+        <f t="shared" ref="H41:K41" si="10">H9-H25</f>
+        <v>-7.9987666751497877E-5</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="10"/>
+        <v>-2.6428962508730051E-5</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.0653861264523612E-2</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="10"/>
+        <v>-2.7983454324875985E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" ref="L41:O41" si="11">L9-L25</f>
+        <v>-1.3828127132879675E-4</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="11"/>
+        <v>-7.3141858802129762E-5</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="11"/>
+        <v>2.1254420899611992E-2</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="11"/>
+        <v>1.11663398921307E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H42" s="2">
+        <f t="shared" ref="H42:K42" si="12">H10-H26</f>
+        <v>-1.4644197435402517E-5</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="12"/>
+        <v>6.374227476729083E-5</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="12"/>
+        <v>-7.7812234053259988E-3</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="12"/>
+        <v>2.9336368918331003E-3</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:O42" si="13">L10-L26</f>
+        <v>1.1515549788800039E-4</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0479138806125058E-4</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="13"/>
+        <v>2.4526093930185011E-2</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0266773993594002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H43" s="2">
+        <f t="shared" ref="H43:K43" si="14">H11-H27</f>
+        <v>-1.2766951484000089E-5</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3547254884649883E-5</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="14"/>
+        <v>-8.145999401446502E-3</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="14"/>
+        <v>-3.040086255786098E-3</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" ref="L43:O43" si="15">L11-L27</f>
+        <v>8.7924939158999516E-4</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="15"/>
+        <v>-3.161962759909015E-4</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="15"/>
+        <v>2.3011162733032997E-2</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="15"/>
+        <v>2.4643947371347993E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H44" s="2">
+        <f t="shared" ref="H44:K44" si="16">H12-H28</f>
+        <v>-7.3984461189446904E-5</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="16"/>
+        <v>-5.9734556913930426E-5</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="16"/>
+        <v>-5.6537598635071906E-3</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5867760869507988E-3</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" ref="L44:O44" si="17">L12-L28</f>
+        <v>5.2540928310307322E-5</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="17"/>
+        <v>7.8417333805309679E-5</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="17"/>
+        <v>1.9431784826220988E-2</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="17"/>
+        <v>7.7435062051164037E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:K45" si="18">H13-H29</f>
+        <v>-1.6833823192539954E-4</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="18"/>
+        <v>-4.7474293360569818E-5</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="18"/>
+        <v>-6.5932415195704974E-3</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="18"/>
+        <v>-2.6078221876295986E-3</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" ref="L45:O45" si="19">L13-L29</f>
+        <v>7.3647507041703364E-5</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="19"/>
+        <v>3.2062454105129604E-5</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="19"/>
+        <v>1.9590081256287972E-2</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="19"/>
+        <v>9.614282627161401E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H46" s="2">
+        <f t="shared" ref="H46:K46" si="20">H14-H30</f>
+        <v>3.7985825698944042E-6</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="20"/>
+        <v>-2.839540124319976E-5</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="20"/>
+        <v>-8.0679768608623026E-3</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="20"/>
+        <v>-3.9039523690863991E-3</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" ref="L46:O46" si="21">L14-L30</f>
+        <v>-1.5017189207101045E-3</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="21"/>
+        <v>-1.0049659984143759E-2</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="21"/>
+        <v>1.972159878614399E-2</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="21"/>
+        <v>4.5836001034390041E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H47" s="2">
+        <f t="shared" ref="H47:K47" si="22">H15-H31</f>
+        <v>2.109126018440266E-4</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="22"/>
+        <v>1.7170657647500587E-3</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="22"/>
+        <v>-7.6613797188929966E-3</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="22"/>
+        <v>-1.4676461450731995E-3</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" ref="L47:O47" si="23">L15-L31</f>
+        <v>-0.16611672066751998</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.38148763009874798</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9214811281211996E-2</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="23"/>
+        <v>8.7717119249251033E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <f t="shared" ref="H48:K48" si="24">H16-H32</f>
+        <v>-1.0462934696064963E-4</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="24"/>
+        <v>-5.8119934540460348E-5</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="24"/>
+        <v>-7.7821039931062069E-3</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="24"/>
+        <v>1.6026800946649863E-4</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" ref="L48:O48" si="25">L16-L32</f>
+        <v>2.0720851530597884E-5</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="25"/>
+        <v>1.7781714793183977E-4</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="25"/>
+        <v>2.027473928238499E-2</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="25"/>
+        <v>5.7212812009628002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="24">
